--- a/userCode/results_must.xlsx
+++ b/userCode/results_must.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -510,7 +510,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>num_infractions</t>
+          <t>N Infractions</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
